--- a/data/phylogeny/phylogeny_nodes_10May.xlsx
+++ b/data/phylogeny/phylogeny_nodes_10May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1320" windowWidth="26860" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="9820" yWindow="-20480" windowWidth="14920" windowHeight="20020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Aze_2011-App_S1</t>
   </si>
@@ -175,13 +175,16 @@
   </si>
   <si>
     <t>hexagonus--non-spinose</t>
+  </si>
+  <si>
+    <t>different</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +208,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +233,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -253,14 +263,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -275,6 +294,10 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -289,6 +312,10 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,7 +648,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -672,6 +699,9 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
@@ -679,6 +709,9 @@
       </c>
       <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="C3">
+        <v>64.95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -688,6 +721,9 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
@@ -696,6 +732,9 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
@@ -704,6 +743,9 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
@@ -712,6 +754,9 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
@@ -720,6 +765,9 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
+      <c r="C8">
+        <v>61.2</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
@@ -739,7 +787,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -750,6 +798,9 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="2">
+        <v>29.4</v>
+      </c>
       <c r="G11">
         <v>10.86</v>
       </c>
@@ -761,6 +812,9 @@
       <c r="B12" t="s">
         <v>47</v>
       </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
       <c r="G12">
         <v>9.1</v>
       </c>
@@ -772,6 +826,9 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
       <c r="G13">
         <v>7.49</v>
       </c>
@@ -797,6 +854,9 @@
       <c r="B15" t="s">
         <v>41</v>
       </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
       <c r="E15">
         <v>25.5</v>
       </c>
@@ -808,6 +868,9 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" t="s">
         <v>48</v>
       </c>
@@ -819,6 +882,9 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
       <c r="E17">
         <v>13.9</v>
       </c>
@@ -830,6 +896,9 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" t="s">
         <v>48</v>
       </c>
@@ -841,6 +910,12 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2.4</v>
+      </c>
       <c r="E19" t="s">
         <v>48</v>
       </c>
@@ -852,6 +927,9 @@
       <c r="B20" t="s">
         <v>36</v>
       </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
       <c r="E20">
         <v>15.1</v>
       </c>
@@ -863,6 +941,9 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
@@ -899,6 +980,9 @@
       <c r="B24" t="s">
         <v>51</v>
       </c>
+      <c r="C24">
+        <v>64.900000000000006</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -918,6 +1002,9 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
+      <c r="C26">
+        <v>37.200000000000003</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
@@ -926,6 +1013,9 @@
       <c r="B27" t="s">
         <v>33</v>
       </c>
+      <c r="C27">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
@@ -934,6 +1024,9 @@
       <c r="B28" t="s">
         <v>32</v>
       </c>
+      <c r="C28">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
@@ -942,6 +1035,9 @@
       <c r="B29" t="s">
         <v>23</v>
       </c>
+      <c r="C29">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
@@ -966,6 +1062,9 @@
       <c r="B32" t="s">
         <v>22</v>
       </c>
+      <c r="C32">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
@@ -1005,6 +1104,9 @@
       </c>
       <c r="B37" t="s">
         <v>25</v>
+      </c>
+      <c r="C37">
+        <v>10.8</v>
       </c>
     </row>
     <row r="38" spans="1:6">

--- a/data/phylogeny/phylogeny_nodes_10May.xlsx
+++ b/data/phylogeny/phylogeny_nodes_10May.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="-20480" windowWidth="14920" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="19460" yWindow="3880" windowWidth="23520" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>Aze_2011-App_S1</t>
   </si>
@@ -178,13 +179,595 @@
   </si>
   <si>
     <t>different</t>
+  </si>
+  <si>
+    <t>10.4 Ma (Darling et al. 2006 &amp; Spencer-Cervato et al. 1994)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P. primalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6.7 Ma (Chaisson &amp; Pearson 1997)</t>
+    </r>
+  </si>
+  <si>
+    <t>10.8 (Aze et al. 2011);</t>
+  </si>
+  <si>
+    <t>6.3 Ma (Aurahs et al.2011) - molecular clock, no fossil evidence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.3 Ma FAD of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G. conglobatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ref)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. elongatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 Ma (Perconig, 1969).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15.1 Ma (Aurahs et al. 2011); 21 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G. obliquus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21.95 Ma (Chaisson &amp; Leckie 1993)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Ma (Aze et a.l 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. tenellus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.4 (N21, Kennett &amp; Sriv. 1983)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ealy/Middle Pliocene G. decoraperta-?-G.rubescens ("not clearly known")</t>
+  </si>
+  <si>
+    <t>15.1 Ma (Pearson et al. 1997); 17 Ma (Aze et al. 2011); 13.9 Ma (Aurahs et al. 2011)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S. disjuncta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Early Miocene (N6, Kennett &amp; Srin. 1983); M5a (Fox &amp; Wade 2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">23.8 Ma (Aze et al. 2011); 21.4 Ma (Stanley et al. 1988); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G. trilobus? </t>
+    </r>
+  </si>
+  <si>
+    <t>7.49 Ma (Weiner et al. 2015)</t>
+  </si>
+  <si>
+    <t>9.10 Ma (Weiner et al. 2015)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.86 (Weiner et al. 2015); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beella praedigitata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12.4 Ma? (Chaisson &amp; Pearson 1997 - check page 27)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11.7 Ma (N13) FAD</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> G. parkerae </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">N13 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. glutinata - G. parkerae - C. nitida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Kennett &amp; Sriv. 1983 - page 205)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.5 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T. humilis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6 Ma (Kennett &amp; Srinivasan 1983)</t>
+    </r>
+  </si>
+  <si>
+    <t>37.2 Ma (Aze et al. 2011)</t>
+  </si>
+  <si>
+    <t>18.8 Ma (Aze et al. 2011)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>N16 (Kennett &amp; Srinivasan 1983, page 125)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.5 Ma (Aze et al. 2011); PROBLEMATIC see </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G.hirsuta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mikrotax</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.2 Ma (Aze et al. 2011);  4.9 Ma FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. ungulata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Chaisson &amp; Leckie 1993)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Late Miocene, FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Globorotalia cibaoensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Kennett &amp; Srinivasan 1983, page 125, 128, 134)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.3 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. tosaensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (N21, Kennett &amp; Srinivasan 1983, page 134)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. cavernula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8 Ma (Aze et al. 2011); 0.61 (Wade et al. 2011); mikrotax</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.3 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. adamsi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.7 Ma (Coxall et al. 2007)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. falconensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18.4 Ma (Olsson et al. 2006 Atlas - no access)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14.8 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. archeomenardii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15.73 (ref in Aze) (Kennett &amp; Sriv. 1983 page 115)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18.3 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G. miozea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Gr." nana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Kennett &amp; Srinivasan 1983, page 102)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.3 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G.lenguaensis?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (what is the ancestral? Kennett &amp; Sriv. P.141)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +798,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,53 +831,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -298,6 +909,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -316,6 +929,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,15 +1262,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
@@ -1192,4 +1808,334 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="115.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/phylogeny/phylogeny_nodes_10May.xlsx
+++ b/data/phylogeny/phylogeny_nodes_10May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19460" yWindow="3880" windowWidth="23520" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23820" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,9 +477,6 @@
     <t>37.2 Ma (Aze et al. 2011)</t>
   </si>
   <si>
-    <t>18.8 Ma (Aze et al. 2011)</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -753,6 +750,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (what is the ancestral? Kennett &amp; Sriv. P.141)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18.8 Ma (Aze et al. 2011); FAD </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">N. continuosa N4b 22.20-23.50Ma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (from "Gr." nana, Kennett &amp; Srinivasan 1983, page 176)</t>
     </r>
   </si>
 </sst>
@@ -1814,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1829,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1862,7 +1884,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1912,7 +1934,7 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2002,7 +2024,7 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2010,7 +2032,7 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2018,7 +2040,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2026,7 +2048,7 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2034,7 +2056,7 @@
         <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2042,7 +2064,7 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2050,7 +2072,7 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2058,7 +2080,7 @@
         <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2066,7 +2088,7 @@
         <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2074,7 +2096,7 @@
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2">
